--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB27F4-52F3-3D4F-8511-90B0911A8466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29642E80-9EB2-CE47-ADAB-977CFEF3456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,12 +59,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
   <si>
     <t>id_soal</t>
-  </si>
-  <si>
-    <t>id_jadwal</t>
   </si>
   <si>
     <t>soal</t>
@@ -105,12 +102,18 @@
   <si>
     <t>Algoritma adalah …</t>
   </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>nama_bank_soal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,20 +125,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF858796"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,16 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,310 +1489,310 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>77188766</v>
+      </c>
+      <c r="B2">
+        <v>41918701</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1020</v>
-      </c>
-      <c r="B2" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>31581160</v>
+      </c>
+      <c r="B3">
+        <v>41918701</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>14691662</v>
+      </c>
+      <c r="B4">
+        <v>41918701</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>83650155</v>
+      </c>
+      <c r="B5">
+        <v>41918701</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1021</v>
-      </c>
-      <c r="B3" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>66637327</v>
+      </c>
+      <c r="B6">
+        <v>41918701</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16100700</v>
+      </c>
+      <c r="B7">
+        <v>41918701</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32585242</v>
+      </c>
+      <c r="B8">
+        <v>41918701</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
       </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1022</v>
-      </c>
-      <c r="B4" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>44450447</v>
+      </c>
+      <c r="B9">
+        <v>41918701</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>72114797</v>
+      </c>
+      <c r="B10">
+        <v>41918701</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1023</v>
-      </c>
-      <c r="B5" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="I10" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1024</v>
-      </c>
-      <c r="B6" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1025</v>
-      </c>
-      <c r="B7" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1026</v>
-      </c>
-      <c r="B8" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1027</v>
-      </c>
-      <c r="B9" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1028</v>
-      </c>
-      <c r="B10" s="4">
-        <v>97719772</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1825,28 +1812,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29642E80-9EB2-CE47-ADAB-977CFEF3456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690D90BC-A0E4-724B-8E68-1886172DA9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,7 +1539,7 @@
         <v>77188766</v>
       </c>
       <c r="B2">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1568,7 +1568,7 @@
         <v>31581160</v>
       </c>
       <c r="B3">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1597,7 +1597,7 @@
         <v>14691662</v>
       </c>
       <c r="B4">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1626,7 +1626,7 @@
         <v>83650155</v>
       </c>
       <c r="B5">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1655,7 +1655,7 @@
         <v>66637327</v>
       </c>
       <c r="B6">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1684,7 +1684,7 @@
         <v>16100700</v>
       </c>
       <c r="B7">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1713,7 +1713,7 @@
         <v>32585242</v>
       </c>
       <c r="B8">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1742,7 +1742,7 @@
         <v>44450447</v>
       </c>
       <c r="B9">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1771,7 +1771,7 @@
         <v>72114797</v>
       </c>
       <c r="B10">
-        <v>41918701</v>
+        <v>92195908</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>

--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4D8BB-175C-244B-A2EB-D7D38516F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB73064-E3B5-3E41-9B05-2D0CEF2FDE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,7 +1539,7 @@
         <v>77188766</v>
       </c>
       <c r="B2">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1568,7 +1568,7 @@
         <v>31581160</v>
       </c>
       <c r="B3">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1597,7 +1597,7 @@
         <v>14691662</v>
       </c>
       <c r="B4">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1626,7 +1626,7 @@
         <v>83650155</v>
       </c>
       <c r="B5">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1655,7 +1655,7 @@
         <v>66637327</v>
       </c>
       <c r="B6">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1684,7 +1684,7 @@
         <v>16100700</v>
       </c>
       <c r="B7">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1713,7 +1713,7 @@
         <v>32585242</v>
       </c>
       <c r="B8">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1742,7 +1742,7 @@
         <v>44450447</v>
       </c>
       <c r="B9">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1771,7 +1771,7 @@
         <v>72114797</v>
       </c>
       <c r="B10">
-        <v>72712970</v>
+        <v>61972490</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>

--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB73064-E3B5-3E41-9B05-2D0CEF2FDE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4358B37-0583-EF47-BDC0-ABFBF41A76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>77188766</v>
+        <v>77188767</v>
       </c>
       <c r="B2">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>31581160</v>
+        <v>77188768</v>
       </c>
       <c r="B3">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>14691662</v>
+        <v>77188769</v>
       </c>
       <c r="B4">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>83650155</v>
+        <v>77188770</v>
       </c>
       <c r="B5">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>66637327</v>
+        <v>77188771</v>
       </c>
       <c r="B6">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16100700</v>
+        <v>77188772</v>
       </c>
       <c r="B7">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>32585242</v>
+        <v>77188773</v>
       </c>
       <c r="B8">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>44450447</v>
+        <v>77188774</v>
       </c>
       <c r="B9">
-        <v>61972490</v>
+        <v>65013500</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>72114797</v>
+        <v>77188775</v>
       </c>
       <c r="B10">
         <v>61972490</v>

--- a/temp_doc/FORMAAT SOAL.xlsx
+++ b/temp_doc/FORMAAT SOAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4358B37-0583-EF47-BDC0-ABFBF41A76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4C5489-0A6B-F649-BF9C-9E14CB0D56D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{B896FFFA-19AA-8E45-A405-33E3E7B3C67E}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,7 +1539,7 @@
         <v>77188767</v>
       </c>
       <c r="B2">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1568,7 +1568,7 @@
         <v>77188768</v>
       </c>
       <c r="B3">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1597,7 +1597,7 @@
         <v>77188769</v>
       </c>
       <c r="B4">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1626,7 +1626,7 @@
         <v>77188770</v>
       </c>
       <c r="B5">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1655,7 +1655,7 @@
         <v>77188771</v>
       </c>
       <c r="B6">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1684,7 +1684,7 @@
         <v>77188772</v>
       </c>
       <c r="B7">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1713,7 +1713,7 @@
         <v>77188773</v>
       </c>
       <c r="B8">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1742,7 +1742,7 @@
         <v>77188774</v>
       </c>
       <c r="B9">
-        <v>65013500</v>
+        <v>75266345</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1771,7 +1771,7 @@
         <v>77188775</v>
       </c>
       <c r="B10">
-        <v>61972490</v>
+        <v>75266345</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
